--- a/biology/Zoologie/Elacatinus_digueti/Elacatinus_digueti.xlsx
+++ b/biology/Zoologie/Elacatinus_digueti/Elacatinus_digueti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elacatinus digueti est une espèce de gobies de la sous-famille des Gobiinae.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme les autres membres du genre Elacatinus, il est appelé gobie néon, en raison de ses reflets métalliques.
-Il mesure jusqu'à 3,2 cm (pour le mâle)[1].
+Il mesure jusqu'à 3,2 cm (pour le mâle).
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un poisson récifal.
-Il est originaire du Golfe de Californie jusqu'à la Colombie[1], mais il est également présent en aquarium, tout comme les autres espèces du genre Elacatinus.
+Il est originaire du Golfe de Californie jusqu'à la Colombie, mais il est également présent en aquarium, tout comme les autres espèces du genre Elacatinus.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ce taxon admet les synonymes latins suivants[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ce taxon admet les synonymes latins suivants :
 Gobiosoma brocki Ginsburg, 1938
 Gobiosoma digueti Pellegrin, 1901</t>
         </is>
